--- a/Maps/HOTAS Switch and Button - Quick Reference - FULL.xlsx
+++ b/Maps/HOTAS Switch and Button - Quick Reference - FULL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Den\OneDrive\Personal\Thrustmaster\TARGET\Clicker\Development\ED_TargetScript-502\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD7662B-D443-412A-A078-055CC6310BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30465" windowHeight="14430"/>
+    <workbookView xWindow="6765" yWindow="960" windowWidth="28305" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -728,13 +729,13 @@
     <t>Align LED</t>
   </si>
   <si>
-    <t>HOTAS - Quick reference - v5.0.2 - FULL</t>
+    <t>HOTAS - Quick reference - v5.02 - FULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1227,14 +1228,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1268,11 +1266,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1280,7 +1275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1301,140 +1296,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1715,14 +1668,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O101"/>
+  <dimension ref="B1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,2007 +1698,1945 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="65"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="G4" s="67" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="G4" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="L4" s="67" t="s">
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
+      <c r="L4" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="69"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-    </row>
+    <row r="6" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="G7" s="35" t="s">
+      <c r="E7" s="12"/>
+      <c r="G7" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="40" t="s">
+      <c r="H7" s="33"/>
+      <c r="I7" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="L7" s="57" t="s">
+      <c r="J7" s="18"/>
+      <c r="L7" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="M7" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="59"/>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="19" t="s">
+      <c r="H8" s="34"/>
+      <c r="I8" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="5" t="s">
+      <c r="J8" s="19"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="45" t="s">
+      <c r="H9" s="23"/>
+      <c r="I9" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="L9" s="34" t="s">
+      <c r="J9" s="20"/>
+      <c r="L9" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="48" t="s">
+      <c r="M9" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="O9" s="49"/>
+      <c r="O9" s="36"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="L10" s="57" t="s">
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="L10" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="O10" s="39"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="66"/>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="23"/>
-      <c r="G11" s="60" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="21"/>
+      <c r="G11" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="12" t="s">
+      <c r="H11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="5" t="s">
+      <c r="J11" s="12"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="O11" s="6"/>
+      <c r="O11" s="5"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56"/>
-      <c r="C12" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-      <c r="L13" s="57" t="s">
+      <c r="G13" s="47"/>
+      <c r="H13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="L13" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="38" t="s">
+      <c r="M13" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N13" s="38" t="s">
+      <c r="N13" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="O13" s="39"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="5" t="s">
+      <c r="E14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="O14" s="6"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="59"/>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="G15" s="60" t="s">
+      <c r="E15" s="3"/>
+      <c r="G15" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="25" t="s">
+      <c r="H15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="L15" s="59" t="s">
+      <c r="J15" s="12"/>
+      <c r="L15" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="8"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="56"/>
-      <c r="C16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="E16" s="5"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="3" t="s">
+      <c r="J16" s="3"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="O16" s="4"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
+      <c r="B17" s="16"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="29" t="s">
+      <c r="C18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="59"/>
-      <c r="C19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="H19" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="J19" s="52" t="s">
+      <c r="J19" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="L19" s="57" t="s">
+      <c r="L19" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="M19" s="38" t="s">
+      <c r="M19" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="N19" s="38" t="s">
+      <c r="N19" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="O19" s="39"/>
+      <c r="O19" s="12"/>
     </row>
     <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
-      <c r="C20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="41"/>
+      <c r="H20" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="5" t="s">
+      <c r="J20" s="3"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="O20" s="6"/>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="18"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="G21" s="55" t="s">
+      <c r="B21" s="16"/>
+      <c r="G21" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L21" s="59" t="s">
+      <c r="L21" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="M21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="8"/>
+      <c r="M21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="41" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="3" t="s">
+      <c r="E22" s="29"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="3" t="s">
+      <c r="J22" s="3"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="O22" s="4"/>
+      <c r="O22" s="3"/>
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="6"/>
+      <c r="J23" s="3"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="3" t="s">
+      <c r="C24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="59"/>
-      <c r="C25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="G25" s="55" t="s">
+      <c r="E25" s="3"/>
+      <c r="G25" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="L25" s="57" t="s">
+      <c r="J25" s="3"/>
+      <c r="L25" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="M25" s="38" t="s">
+      <c r="M25" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="N25" s="38" t="s">
+      <c r="N25" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="O25" s="39"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="5" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="5" t="s">
+      <c r="J26" s="5"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-    </row>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="G28" s="35" t="s">
+      <c r="E28" s="12"/>
+      <c r="G28" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38" t="s">
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J28" s="39" t="s">
+      <c r="J28" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="L28" s="57" t="s">
+      <c r="L28" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="38" t="s">
+      <c r="M28" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="N28" s="38" t="s">
+      <c r="N28" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="O28" s="39"/>
+      <c r="O28" s="12"/>
     </row>
     <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="59"/>
-      <c r="C29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="G29" s="36" t="s">
+      <c r="E29" s="3"/>
+      <c r="G29" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="L29" s="56"/>
-      <c r="M29" s="5" t="s">
+      <c r="L29" s="39"/>
+      <c r="M29" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="O29" s="6"/>
+      <c r="O29" s="5"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="B30" s="41"/>
+      <c r="C30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="G30" s="36" t="s">
+      <c r="E30" s="3"/>
+      <c r="G30" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3" t="s">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="G31" s="50" t="s">
+      <c r="C31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+      <c r="G31" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3" t="s">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="L31" s="57" t="s">
+      <c r="L31" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="M31" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" s="12" t="s">
+      <c r="M31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="O31" s="13"/>
+      <c r="O31" s="12"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="59"/>
-      <c r="C32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="B32" s="38"/>
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="G32" s="55" t="s">
+      <c r="E32" s="3"/>
+      <c r="G32" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J32" s="53" t="s">
+      <c r="J32" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="L32" s="59"/>
-      <c r="M32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="3" t="s">
+      <c r="L32" s="38"/>
+      <c r="M32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="58"/>
-      <c r="C33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="5" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="J33" s="54"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="3" t="s">
+      <c r="J33" s="53"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="O33" s="4"/>
+      <c r="O33" s="3"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="L34" s="55" t="s">
+      <c r="C34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="L34" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="M34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="4"/>
+      <c r="M34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="3"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="59"/>
-      <c r="C35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="B35" s="38"/>
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="G35" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="12" t="s">
+      <c r="H35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="L35" s="59"/>
-      <c r="M35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="3" t="s">
+      <c r="L35" s="38"/>
+      <c r="M35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="O35" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="58"/>
-      <c r="C36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="3" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L36" s="58"/>
-      <c r="M36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="4"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="3"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G37" s="58"/>
-      <c r="H37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="3" t="s">
+      <c r="G37" s="41"/>
+      <c r="H37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="L37" s="55" t="s">
+      <c r="L37" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="M37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="3"/>
-      <c r="O37" s="4"/>
+      <c r="M37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="3"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="59"/>
-      <c r="C38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="B38" s="38"/>
+      <c r="C38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3" t="s">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="L38" s="59"/>
-      <c r="M38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="4"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="3"/>
     </row>
     <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="56"/>
-      <c r="C39" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="G39" s="59" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="G39" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="8"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N39" s="33"/>
-      <c r="O39" s="4"/>
+      <c r="H39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="7"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="24"/>
+      <c r="O39" s="3"/>
     </row>
     <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" s="3" t="s">
+      <c r="G40" s="38"/>
+      <c r="H40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J40" s="4"/>
-      <c r="L40" s="55" t="s">
+      <c r="J40" s="3"/>
+      <c r="L40" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="M40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="33" t="s">
+      <c r="M40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="O40" s="4"/>
+      <c r="O40" s="3"/>
     </row>
     <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="12" t="s">
+      <c r="C41" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="6"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N41" s="33" t="s">
+      <c r="E41" s="12"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="5"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="O41" s="4" t="s">
+      <c r="O41" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="59"/>
-      <c r="C42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="B42" s="38"/>
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N42" s="33" t="s">
+      <c r="E42" s="3"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="O42" s="4"/>
+      <c r="O42" s="3"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="58"/>
-      <c r="C43" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="G43" s="57" t="s">
+      <c r="E43" s="3"/>
+      <c r="G43" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="31" t="s">
+      <c r="H43" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="32"/>
-      <c r="L43" s="59" t="s">
+      <c r="J43" s="12"/>
+      <c r="L43" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="3"/>
-      <c r="O43" s="4"/>
+      <c r="M43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="3"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="4"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N44" s="3" t="s">
+      <c r="C44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="O44" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="59"/>
-      <c r="C45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="B45" s="38"/>
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="E45" s="3"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L45" s="56"/>
-      <c r="M45" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N45" s="5" t="s">
+      <c r="L45" s="39"/>
+      <c r="M45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="O45" s="6"/>
+      <c r="O45" s="5"/>
     </row>
     <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="58"/>
-      <c r="C46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="G46" s="55" t="s">
+      <c r="E46" s="3"/>
+      <c r="G46" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="4"/>
+      <c r="H46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="4"/>
-      <c r="L47" s="57" t="s">
+      <c r="C47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="3"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="3"/>
+      <c r="L47" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="M47" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="12"/>
-      <c r="O47" s="13"/>
+      <c r="M47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="11"/>
+      <c r="O47" s="12"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="59"/>
-      <c r="C48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="B48" s="38"/>
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="4"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N48" s="3" t="s">
+      <c r="E48" s="3"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="3"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="O48" s="4"/>
+      <c r="O48" s="3"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="58"/>
-      <c r="C49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="G49" s="55" t="s">
+      <c r="E49" s="3"/>
+      <c r="G49" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="3" t="s">
+      <c r="H49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J49" s="4"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N49" s="3"/>
-      <c r="O49" s="4"/>
+      <c r="J49" s="3"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="3"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="4"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J50" s="4"/>
-      <c r="L50" s="55" t="s">
+      <c r="C50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="3"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="L50" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="M50" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N50" s="3"/>
-      <c r="O50" s="4"/>
+      <c r="M50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="3"/>
     </row>
     <row r="51" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="59"/>
-      <c r="C51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="B51" s="38"/>
+      <c r="C51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="6"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N51" s="3" t="s">
+      <c r="E51" s="3"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="5"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O51" s="4"/>
+      <c r="O51" s="3"/>
     </row>
     <row r="52" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="56"/>
-      <c r="C52" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="B52" s="39"/>
+      <c r="C52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N52" s="5"/>
-      <c r="O52" s="6"/>
+      <c r="E52" s="5"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" s="4"/>
+      <c r="O52" s="5"/>
     </row>
     <row r="53" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="G53" s="57" t="s">
+      <c r="G53" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="H53" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="13"/>
+      <c r="H53" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="12"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="13"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54" s="3" t="s">
+      <c r="C54" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="J54" s="4"/>
-      <c r="L54" s="57" t="s">
+      <c r="J54" s="3"/>
+      <c r="L54" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="M54" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N54" s="12"/>
-      <c r="O54" s="13"/>
+      <c r="M54" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" s="11"/>
+      <c r="O54" s="12"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="59"/>
-      <c r="C55" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="B55" s="38"/>
+      <c r="C55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="4"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N55" s="3" t="s">
+      <c r="E55" s="3"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="3"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="O55" s="4" t="s">
+      <c r="O55" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="58"/>
-      <c r="C56" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="4"/>
-      <c r="G56" s="55" t="s">
+      <c r="B56" s="41"/>
+      <c r="C56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="3"/>
+      <c r="G56" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="4"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N56" s="3"/>
-      <c r="O56" s="4"/>
+      <c r="H56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="3"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="3"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="4"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I57" s="3" t="s">
+      <c r="C57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="3"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="J57" s="4"/>
-      <c r="L57" s="55" t="s">
+      <c r="J57" s="3"/>
+      <c r="L57" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N57" s="3"/>
-      <c r="O57" s="4"/>
+      <c r="M57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="3"/>
     </row>
     <row r="58" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="59"/>
-      <c r="C58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="B58" s="38"/>
+      <c r="C58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="5"/>
-      <c r="J58" s="6"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N58" s="3"/>
-      <c r="O58" s="4"/>
+      <c r="E58" s="3"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="5"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="3"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="58"/>
-      <c r="C59" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="4"/>
-      <c r="L59" s="58"/>
-      <c r="M59" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N59" s="3"/>
-      <c r="O59" s="4"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="3"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="3"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="4"/>
-      <c r="L60" s="55" t="s">
+      <c r="C60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="3"/>
+      <c r="L60" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N60" s="3"/>
-      <c r="O60" s="4"/>
+      <c r="M60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="3"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="59"/>
-      <c r="C61" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="B61" s="38"/>
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="L61" s="59"/>
-      <c r="M61" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N61" s="3" t="s">
+      <c r="E61" s="3"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O61" s="4" t="s">
+      <c r="O61" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="58"/>
-      <c r="C62" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="4"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N62" s="3"/>
-      <c r="O62" s="4"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="3"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="3"/>
     </row>
     <row r="63" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="4"/>
-      <c r="L63" s="16" t="s">
+      <c r="C63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="3"/>
+      <c r="L63" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5" t="s">
+      <c r="M63" s="4"/>
+      <c r="N63" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="O63" s="6" t="s">
+      <c r="O63" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="64" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="59"/>
-      <c r="C64" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="B64" s="38"/>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="56"/>
-      <c r="C65" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="6"/>
-      <c r="L65" s="57" t="s">
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="39"/>
+      <c r="C65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="5"/>
+      <c r="L65" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="M65" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N65" s="12" t="s">
+      <c r="M65" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="O65" s="13" t="s">
+      <c r="O65" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N66" s="3" t="s">
+    <row r="66" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L66" s="38"/>
+      <c r="M66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="O66" s="4" t="s">
+      <c r="O66" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="57" t="s">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B67" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" s="12" t="s">
+      <c r="C67" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="L67" s="58"/>
-      <c r="M67" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N67" s="3" t="s">
+      <c r="L67" s="41"/>
+      <c r="M67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="O67" s="4" t="s">
+      <c r="O67" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="59"/>
-      <c r="C68" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" s="3" t="s">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="38"/>
+      <c r="C68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L68" s="55" t="s">
+      <c r="L68" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="M68" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N68" s="3"/>
-      <c r="O68" s="4"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="58"/>
-      <c r="C69" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="3" t="s">
+      <c r="M68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="41"/>
+      <c r="C69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="27"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N69" s="3"/>
-      <c r="O69" s="4"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="55" t="s">
+      <c r="E69" s="3"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="4"/>
-      <c r="L70" s="58"/>
-      <c r="M70" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N70" s="3"/>
-      <c r="O70" s="4"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="59"/>
-      <c r="C71" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" s="3" t="s">
+      <c r="C70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="3"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="38"/>
+      <c r="C71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="L71" s="55" t="s">
+      <c r="E71" s="3"/>
+      <c r="L71" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="M71" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N71" s="3"/>
-      <c r="O71" s="4"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="58"/>
-      <c r="C72" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72" s="3" t="s">
+      <c r="M71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="41"/>
+      <c r="C72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="27"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N72" s="3" t="s">
+      <c r="E72" s="3"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="O72" s="4"/>
-    </row>
-    <row r="73" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="55" t="s">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="4"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N73" s="5"/>
-      <c r="O73" s="6"/>
-    </row>
-    <row r="74" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="59"/>
-      <c r="C74" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="C73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="3"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" s="4"/>
+      <c r="O73" s="5"/>
+    </row>
+    <row r="74" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="38"/>
+      <c r="C74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="58"/>
-      <c r="C75" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D75" s="3" t="s">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B75" s="41"/>
+      <c r="C75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="27"/>
-      <c r="L75" s="57" t="s">
+      <c r="E75" s="3"/>
+      <c r="L75" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="M75" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N75" s="12" t="s">
+      <c r="M75" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N75" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="O75" s="13"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="55" t="s">
+      <c r="O75" s="12"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="3">
+      <c r="C76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="2">
         <v>0</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N76" s="3" t="s">
+      <c r="E76" s="3"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N76" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O76" s="4" t="s">
+      <c r="O76" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="59"/>
-      <c r="C77" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="3" t="s">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="38"/>
+      <c r="C77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L77" s="58"/>
-      <c r="M77" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N77" s="3" t="s">
+      <c r="L77" s="41"/>
+      <c r="M77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="O77" s="4"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" s="3">
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="41"/>
+      <c r="C78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="2">
         <v>0</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="2"/>
-      <c r="L78" s="55" t="s">
+      <c r="E78" s="3"/>
+      <c r="L78" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="M78" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N78" s="3"/>
-      <c r="O78" s="4"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="55" t="s">
+      <c r="M78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B79" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="2"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N79" s="3"/>
-      <c r="O79" s="4"/>
-    </row>
-    <row r="80" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="C79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="3"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="38"/>
+      <c r="C80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="2"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N80" s="5"/>
-      <c r="O80" s="6"/>
+      <c r="E80" s="3"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="4"/>
+      <c r="O80" s="5"/>
     </row>
     <row r="81" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="58"/>
-      <c r="C81" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="B81" s="41"/>
+      <c r="C81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E81" s="27"/>
+      <c r="E81" s="3"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" s="3" t="s">
+      <c r="C82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L82" s="57" t="s">
+      <c r="L82" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="M82" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N82" s="12" t="s">
+      <c r="M82" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="O82" s="13" t="s">
+      <c r="O82" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B83" s="59"/>
-      <c r="C83" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="B83" s="38"/>
+      <c r="C83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L83" s="59"/>
-      <c r="M83" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N83" s="3" t="s">
+      <c r="L83" s="38"/>
+      <c r="M83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="O83" s="4" t="s">
+      <c r="O83" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="84" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="56"/>
-      <c r="C84" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D84" s="5" t="s">
+      <c r="B84" s="39"/>
+      <c r="C84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L84" s="58"/>
-      <c r="M84" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N84" s="3" t="s">
+      <c r="L84" s="41"/>
+      <c r="M84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="O84" s="4" t="s">
+      <c r="O84" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L85" s="55" t="s">
+      <c r="L85" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="M85" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N85" s="3"/>
-      <c r="O85" s="4"/>
+      <c r="M85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="3"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L86" s="59"/>
-      <c r="M86" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N86" s="3"/>
-      <c r="O86" s="4"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="3"/>
     </row>
     <row r="87" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L87" s="56"/>
-      <c r="M87" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N87" s="5"/>
-      <c r="O87" s="6"/>
+      <c r="L87" s="39"/>
+      <c r="M87" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N87" s="4"/>
+      <c r="O87" s="5"/>
     </row>
     <row r="88" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L89" s="57" t="s">
+      <c r="L89" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="M89" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N89" s="12"/>
-      <c r="O89" s="13"/>
+      <c r="M89" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N89" s="11"/>
+      <c r="O89" s="12"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L90" s="59"/>
-      <c r="M90" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N90" s="3" t="s">
+      <c r="L90" s="38"/>
+      <c r="M90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="O90" s="4" t="s">
+      <c r="O90" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L91" s="58"/>
-      <c r="M91" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N91" s="3"/>
-      <c r="O91" s="4"/>
+      <c r="L91" s="41"/>
+      <c r="M91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="3"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L92" s="55" t="s">
+      <c r="L92" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="M92" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N92" s="3"/>
-      <c r="O92" s="4"/>
+      <c r="M92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="3"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L93" s="59"/>
-      <c r="M93" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N93" s="3" t="s">
+      <c r="L93" s="38"/>
+      <c r="M93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="O93" s="4" t="s">
+      <c r="O93" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="94" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L94" s="56"/>
-      <c r="M94" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N94" s="5"/>
-      <c r="O94" s="6"/>
+      <c r="L94" s="39"/>
+      <c r="M94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N94" s="4"/>
+      <c r="O94" s="5"/>
     </row>
     <row r="95" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="96" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L96" s="57" t="s">
+      <c r="L96" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="M96" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N96" s="12"/>
-      <c r="O96" s="13"/>
+      <c r="M96" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N96" s="11"/>
+      <c r="O96" s="12"/>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L97" s="59"/>
-      <c r="M97" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N97" s="3"/>
-      <c r="O97" s="4"/>
+      <c r="L97" s="38"/>
+      <c r="M97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="3"/>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L98" s="58"/>
-      <c r="M98" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N98" s="3"/>
-      <c r="O98" s="4"/>
+      <c r="L98" s="41"/>
+      <c r="M98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="3"/>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L99" s="55" t="s">
+      <c r="L99" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="M99" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N99" s="3"/>
-      <c r="O99" s="4"/>
+      <c r="M99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="3"/>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L100" s="59"/>
-      <c r="M100" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N100" s="3"/>
-      <c r="O100" s="4"/>
+      <c r="L100" s="38"/>
+      <c r="M100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="3"/>
     </row>
     <row r="101" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L101" s="56"/>
-      <c r="M101" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N101" s="5"/>
-      <c r="O101" s="6"/>
+      <c r="L101" s="39"/>
+      <c r="M101" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N101" s="4"/>
+      <c r="O101" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="L60:L62"/>
-    <mergeCell ref="L85:L87"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="L71:L73"/>
-    <mergeCell ref="L75:L77"/>
-    <mergeCell ref="L78:L80"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="L89:L91"/>
-    <mergeCell ref="L92:L94"/>
-    <mergeCell ref="L96:L98"/>
-    <mergeCell ref="L82:L84"/>
-    <mergeCell ref="L99:L101"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B41:B43"/>
     <mergeCell ref="B82:B84"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="B70:B72"/>
@@ -3762,35 +3653,32 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="G39:G41"/>
     <mergeCell ref="G43:G45"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L89:L91"/>
+    <mergeCell ref="L92:L94"/>
+    <mergeCell ref="L96:L98"/>
+    <mergeCell ref="L82:L84"/>
+    <mergeCell ref="L99:L101"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="L60:L62"/>
+    <mergeCell ref="L85:L87"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="L71:L73"/>
+    <mergeCell ref="L75:L77"/>
+    <mergeCell ref="L78:L80"/>
+    <mergeCell ref="L65:L67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>

--- a/Maps/HOTAS Switch and Button - Quick Reference - FULL.xlsx
+++ b/Maps/HOTAS Switch and Button - Quick Reference - FULL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Den\OneDrive\Personal\Thrustmaster\TARGET\Clicker\Development\ED_TargetScript-502\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD7662B-D443-412A-A078-055CC6310BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DF7FA8-5220-4D40-8A88-FD925BD53B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6765" yWindow="960" windowWidth="28305" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7110" yWindow="675" windowWidth="28305" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="237">
   <si>
     <t>TG1</t>
   </si>
@@ -627,15 +627,9 @@
     <t>IDLELOFF</t>
   </si>
   <si>
-    <t>Enter</t>
-  </si>
-  <si>
     <t>fnHangerServices(0)</t>
   </si>
   <si>
-    <t>Launch</t>
-  </si>
-  <si>
     <t>SwapRollYaw</t>
   </si>
   <si>
@@ -687,15 +681,6 @@
     <t>Debug</t>
   </si>
   <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
     <t>Pitch Up</t>
   </si>
   <si>
@@ -730,6 +715,27 @@
   </si>
   <si>
     <t>HOTAS - Quick reference - v5.02 - FULL</t>
+  </si>
+  <si>
+    <t>Engine and Wep</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>EFLNORM-R</t>
+  </si>
+  <si>
+    <t>Debug+Flags Off</t>
+  </si>
+  <si>
+    <t>fnDebug(0)</t>
+  </si>
+  <si>
+    <t>Launch or SRV handbrake OFF</t>
+  </si>
+  <si>
+    <t>Enter or SRV Handbrake ON</t>
   </si>
 </sst>
 </file>
@@ -753,7 +759,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,6 +778,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="34">
     <border>
@@ -1228,7 +1240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1338,30 +1350,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1371,6 +1380,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1383,11 +1401,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1672,10 +1717,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O101"/>
+  <dimension ref="B1:O105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O2"/>
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,49 +1739,49 @@
     <col min="12" max="12" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
+      <c r="B2" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="G4" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
-      <c r="L4" s="49" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="G4" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="L4" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
@@ -1778,7 +1823,7 @@
     </row>
     <row r="6" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -1796,7 +1841,7 @@
         <v>115</v>
       </c>
       <c r="J7" s="18"/>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="41" t="s">
         <v>73</v>
       </c>
       <c r="M7" s="11" t="s">
@@ -1808,7 +1853,7 @@
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="38"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1826,7 +1871,7 @@
         <v>116</v>
       </c>
       <c r="J8" s="19"/>
-      <c r="L8" s="39"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="4" t="s">
         <v>128</v>
       </c>
@@ -1836,7 +1881,7 @@
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1844,7 +1889,7 @@
         <v>137</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>113</v>
@@ -1861,12 +1906,12 @@
         <v>25</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O9" s="36"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="50" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1874,25 +1919,25 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="41" t="s">
         <v>75</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>127</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="48"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="21"/>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="44" t="s">
         <v>50</v>
       </c>
       <c r="H11" s="11" t="s">
@@ -1902,23 +1947,23 @@
         <v>52</v>
       </c>
       <c r="J11" s="12"/>
-      <c r="L11" s="39"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="4" t="s">
         <v>128</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="39"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="5"/>
-      <c r="G12" s="46"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1928,25 +1973,25 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="47"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
-      <c r="L13" s="40" t="s">
+      <c r="L13" s="41" t="s">
         <v>76</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O13" s="12"/>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1957,9 +2002,9 @@
       </c>
       <c r="E14" s="12"/>
       <c r="G14" s="13"/>
-      <c r="L14" s="39"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="4" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>175</v>
@@ -1967,7 +2012,7 @@
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1975,7 +2020,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="44" t="s">
         <v>53</v>
       </c>
       <c r="H15" s="11" t="s">
@@ -1985,7 +2030,7 @@
         <v>161</v>
       </c>
       <c r="J15" s="12"/>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="43" t="s">
         <v>77</v>
       </c>
       <c r="M15" s="6"/>
@@ -1993,15 +2038,15 @@
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="39"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="G16" s="46"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2009,7 +2054,7 @@
         <v>54</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="L16" s="38"/>
+      <c r="L16" s="43"/>
       <c r="M16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2020,19 +2065,19 @@
     </row>
     <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16"/>
-      <c r="G17" s="47"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="5"/>
-      <c r="L17" s="39"/>
+      <c r="L17" s="40"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="41" t="s">
         <v>108</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -2047,7 +2092,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2057,7 +2102,7 @@
       <c r="E19" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="41" t="s">
         <v>55</v>
       </c>
       <c r="H19" s="11" t="s">
@@ -2069,19 +2114,19 @@
       <c r="J19" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="L19" s="40" t="s">
+      <c r="L19" s="41" t="s">
         <v>78</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>127</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O19" s="12"/>
     </row>
     <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="39"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
@@ -2089,28 +2134,26 @@
         <v>138</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G20" s="41"/>
+        <v>203</v>
+      </c>
+      <c r="G20" s="42"/>
       <c r="H20" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="4" t="s">
+      <c r="L20" s="43"/>
+      <c r="M20" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N20" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O20" s="5"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16"/>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="39" t="s">
         <v>56</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -2122,14 +2165,12 @@
       <c r="J21" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L21" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="7"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
@@ -2140,25 +2181,25 @@
         <v>114</v>
       </c>
       <c r="E22" s="29"/>
-      <c r="G22" s="41"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="L22" s="38"/>
+      <c r="L22" s="43"/>
       <c r="M22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -2168,15 +2209,15 @@
         <v>100</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" s="4"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="22"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="40" t="s">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="41" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -2184,17 +2225,25 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
-      <c r="G24" s="41"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J24" s="3"/>
+      <c r="L24" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="38"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
@@ -2202,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="39" t="s">
         <v>58</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -2212,44 +2261,40 @@
         <v>101</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="L25" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="O25" s="12"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="39"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
-      <c r="G26" s="39"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="4" t="s">
         <v>128</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J26" s="5"/>
-      <c r="L26" s="39"/>
+      <c r="L26" s="40"/>
       <c r="M26" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="N26" s="4"/>
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -2264,24 +2309,24 @@
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="L28" s="40" t="s">
-        <v>81</v>
+        <v>223</v>
+      </c>
+      <c r="L28" s="41" t="s">
+        <v>80</v>
       </c>
       <c r="M28" s="11" t="s">
         <v>127</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="O28" s="12"/>
     </row>
     <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="38"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="2" t="s">
         <v>25</v>
       </c>
@@ -2294,22 +2339,22 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="L29" s="39"/>
+        <v>223</v>
+      </c>
+      <c r="L29" s="40"/>
       <c r="M29" s="4" t="s">
         <v>128</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="O29" s="5"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="41"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2322,14 +2367,14 @@
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2342,24 +2387,24 @@
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="L31" s="40" t="s">
-        <v>82</v>
+        <v>223</v>
+      </c>
+      <c r="L31" s="41" t="s">
+        <v>81</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="38"/>
+    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="43"/>
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
@@ -2367,55 +2412,45 @@
         <v>7</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="39" t="s">
         <v>63</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J32" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="L32" s="38"/>
-      <c r="M32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>180</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="L32" s="40"/>
+      <c r="M32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O32" s="5"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="41"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
-      <c r="G33" s="39"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="4" t="s">
         <v>128</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J33" s="53"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="O33" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="J33" s="38"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="39" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2423,17 +2458,19 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
-      <c r="L34" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="3"/>
+      <c r="L34" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O34" s="12"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="38"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
@@ -2443,7 +2480,7 @@
       <c r="E35" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G35" s="40" t="s">
+      <c r="G35" s="41" t="s">
         <v>64</v>
       </c>
       <c r="H35" s="11" t="s">
@@ -2455,7 +2492,7 @@
       <c r="J35" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="L35" s="38"/>
+      <c r="L35" s="43"/>
       <c r="M35" s="2" t="s">
         <v>25</v>
       </c>
@@ -2463,17 +2500,17 @@
         <v>134</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="41"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
-      <c r="G36" s="38"/>
+      <c r="G36" s="43"/>
       <c r="H36" s="2" t="s">
         <v>25</v>
       </c>
@@ -2483,15 +2520,17 @@
       <c r="J36" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L36" s="41"/>
+      <c r="L36" s="42"/>
       <c r="M36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N36" s="2"/>
+      <c r="N36" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="39" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2503,7 +2542,7 @@
       <c r="E37" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G37" s="41"/>
+      <c r="G37" s="42"/>
       <c r="H37" s="2" t="s">
         <v>26</v>
       </c>
@@ -2511,10 +2550,10 @@
         <v>126</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L37" s="37" t="s">
-        <v>83</v>
+        <v>228</v>
+      </c>
+      <c r="L37" s="39" t="s">
+        <v>181</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>24</v>
@@ -2523,7 +2562,7 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="38"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="2" t="s">
         <v>25</v>
       </c>
@@ -2543,21 +2582,25 @@
       <c r="J38" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="L38" s="38"/>
+      <c r="L38" s="43"/>
       <c r="M38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="3"/>
+      <c r="N38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="39"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
-      <c r="G39" s="38" t="s">
+      <c r="G39" s="43" t="s">
         <v>66</v>
       </c>
       <c r="H39" s="6" t="s">
@@ -2565,15 +2608,15 @@
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="7"/>
-      <c r="L39" s="41"/>
+      <c r="L39" s="42"/>
       <c r="M39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N39" s="24"/>
+      <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="38"/>
+      <c r="G40" s="43"/>
       <c r="H40" s="2" t="s">
         <v>25</v>
       </c>
@@ -2581,19 +2624,17 @@
         <v>67</v>
       </c>
       <c r="J40" s="3"/>
-      <c r="L40" s="37" t="s">
-        <v>84</v>
+      <c r="L40" s="39" t="s">
+        <v>83</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N40" s="24" t="s">
-        <v>135</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="41" t="s">
         <v>33</v>
       </c>
       <c r="C41" s="11" t="s">
@@ -2603,25 +2644,21 @@
         <v>145</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="G41" s="39"/>
+      <c r="G41" s="40"/>
       <c r="H41" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="5"/>
-      <c r="L41" s="38"/>
+      <c r="L41" s="43"/>
       <c r="M41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N41" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="3"/>
     </row>
     <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="38"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
@@ -2629,17 +2666,15 @@
         <v>11</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="L42" s="41"/>
+      <c r="L42" s="42"/>
       <c r="M42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="24" t="s">
-        <v>184</v>
-      </c>
+      <c r="N42" s="24"/>
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="2" t="s">
         <v>26</v>
       </c>
@@ -2647,7 +2682,7 @@
         <v>11</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="G43" s="40" t="s">
+      <c r="G43" s="41" t="s">
         <v>68</v>
       </c>
       <c r="H43" s="11" t="s">
@@ -2657,17 +2692,19 @@
         <v>102</v>
       </c>
       <c r="J43" s="12"/>
-      <c r="L43" s="38" t="s">
-        <v>183</v>
+      <c r="L43" s="39" t="s">
+        <v>84</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N43" s="2"/>
+      <c r="N43" s="24" t="s">
+        <v>135</v>
+      </c>
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2675,24 +2712,24 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
-      <c r="G44" s="38"/>
+      <c r="G44" s="43"/>
       <c r="H44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J44" s="3"/>
-      <c r="L44" s="38"/>
+      <c r="L44" s="43"/>
       <c r="M44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="N44" s="24" t="s">
         <v>136</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="38"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="43"/>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
@@ -2700,7 +2737,7 @@
         <v>12</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="G45" s="41"/>
+      <c r="G45" s="42"/>
       <c r="H45" s="2" t="s">
         <v>26</v>
       </c>
@@ -2710,17 +2747,17 @@
       <c r="J45" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L45" s="39"/>
-      <c r="M45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="41"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="42"/>
       <c r="C46" s="2" t="s">
         <v>26</v>
       </c>
@@ -2728,7 +2765,7 @@
         <v>13</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="G46" s="37" t="s">
+      <c r="G46" s="39" t="s">
         <v>69</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -2736,9 +2773,17 @@
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="3"/>
+      <c r="L46" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="3"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2746,23 +2791,25 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="3"/>
-      <c r="G47" s="38"/>
+      <c r="G47" s="43"/>
       <c r="H47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="3"/>
-      <c r="L47" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="11"/>
-      <c r="O47" s="12"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="38"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="43"/>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
@@ -2770,23 +2817,23 @@
         <v>14</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="G48" s="41"/>
+      <c r="G48" s="42"/>
       <c r="H48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="3"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="41"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O48" s="5"/>
+    </row>
+    <row r="49" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="42"/>
       <c r="C49" s="2" t="s">
         <v>26</v>
       </c>
@@ -2794,7 +2841,7 @@
         <v>15</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="G49" s="37" t="s">
+      <c r="G49" s="39" t="s">
         <v>70</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -2804,15 +2851,9 @@
         <v>103</v>
       </c>
       <c r="J49" s="3"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="3"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2820,22 +2861,22 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
-      <c r="G50" s="38"/>
+      <c r="G50" s="43"/>
       <c r="H50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J50" s="3"/>
-      <c r="L50" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="3"/>
+      <c r="L50" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" s="11"/>
+      <c r="O50" s="12"/>
     </row>
     <row r="51" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="38"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
@@ -2843,23 +2884,23 @@
         <v>16</v>
       </c>
       <c r="E51" s="3"/>
-      <c r="G51" s="39"/>
+      <c r="G51" s="40"/>
       <c r="H51" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="5"/>
-      <c r="L51" s="38"/>
+      <c r="L51" s="43"/>
       <c r="M51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="39"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="4" t="s">
         <v>26</v>
       </c>
@@ -2867,15 +2908,15 @@
         <v>17</v>
       </c>
       <c r="E52" s="5"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N52" s="4"/>
-      <c r="O52" s="5"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="3"/>
     </row>
     <row r="53" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G53" s="40" t="s">
+      <c r="G53" s="41" t="s">
         <v>71</v>
       </c>
       <c r="H53" s="11" t="s">
@@ -2883,9 +2924,17 @@
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="12"/>
+      <c r="L53" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="3"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="41" t="s">
         <v>37</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -2893,7 +2942,7 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="12"/>
-      <c r="G54" s="38"/>
+      <c r="G54" s="43"/>
       <c r="H54" s="2" t="s">
         <v>25</v>
       </c>
@@ -2901,17 +2950,17 @@
         <v>171</v>
       </c>
       <c r="J54" s="3"/>
-      <c r="L54" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N54" s="11"/>
-      <c r="O54" s="12"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="38"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="43"/>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
@@ -2919,31 +2968,27 @@
         <v>146</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="G55" s="41"/>
+      <c r="G55" s="42"/>
       <c r="H55" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="3"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="41"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" s="4"/>
+      <c r="O55" s="5"/>
+    </row>
+    <row r="56" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="42"/>
       <c r="C56" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
-      <c r="G56" s="37" t="s">
+      <c r="G56" s="39" t="s">
         <v>72</v>
       </c>
       <c r="H56" s="2" t="s">
@@ -2951,15 +2996,9 @@
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="3"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="3"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="39" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2967,7 +3006,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
-      <c r="G57" s="38"/>
+      <c r="G57" s="43"/>
       <c r="H57" s="2" t="s">
         <v>25</v>
       </c>
@@ -2975,17 +3014,17 @@
         <v>172</v>
       </c>
       <c r="J57" s="3"/>
-      <c r="L57" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="3"/>
+      <c r="L57" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="11"/>
+      <c r="O57" s="12"/>
     </row>
     <row r="58" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="38"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
@@ -2993,27 +3032,31 @@
         <v>147</v>
       </c>
       <c r="E58" s="3"/>
-      <c r="G58" s="39"/>
+      <c r="G58" s="40"/>
       <c r="H58" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="5"/>
-      <c r="L58" s="38"/>
+      <c r="L58" s="43"/>
       <c r="M58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="3"/>
+      <c r="N58" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="41"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="3"/>
-      <c r="L59" s="41"/>
+      <c r="L59" s="42"/>
       <c r="M59" s="2" t="s">
         <v>26</v>
       </c>
@@ -3021,7 +3064,7 @@
       <c r="O59" s="3"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="39" t="s">
         <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -3029,8 +3072,8 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="3"/>
-      <c r="L60" s="37" t="s">
-        <v>89</v>
+      <c r="L60" s="39" t="s">
+        <v>88</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>24</v>
@@ -3039,7 +3082,7 @@
       <c r="O60" s="3"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="38"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
@@ -3047,33 +3090,29 @@
         <v>148</v>
       </c>
       <c r="E61" s="3"/>
-      <c r="L61" s="38"/>
+      <c r="L61" s="43"/>
       <c r="M61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N61" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="3"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="41"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="3"/>
-      <c r="L62" s="41"/>
+      <c r="L62" s="42"/>
       <c r="M62" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="37" t="s">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="39" t="s">
         <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -3081,19 +3120,17 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="3"/>
-      <c r="L63" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O63" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="38"/>
+      <c r="L63" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="43"/>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
@@ -3101,41 +3138,45 @@
         <v>149</v>
       </c>
       <c r="E64" s="3"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="65" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="39"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="5"/>
-      <c r="L65" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="M65" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N65" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="O65" s="12" t="s">
-        <v>195</v>
-      </c>
+      <c r="L65" s="42"/>
+      <c r="M65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="3"/>
     </row>
     <row r="66" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L66" s="38"/>
-      <c r="M66" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="40" t="s">
+      <c r="L66" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -3147,19 +3188,9 @@
       <c r="E67" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="L67" s="41"/>
-      <c r="M67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="38"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
@@ -3169,17 +3200,21 @@
       <c r="E68" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L68" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="3"/>
+      <c r="L68" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O68" s="12" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="41"/>
+      <c r="B69" s="42"/>
       <c r="C69" s="2" t="s">
         <v>26</v>
       </c>
@@ -3187,15 +3222,19 @@
         <v>18</v>
       </c>
       <c r="E69" s="3"/>
-      <c r="L69" s="38"/>
+      <c r="L69" s="43"/>
       <c r="M69" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="3"/>
+      <c r="N69" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -3203,15 +3242,19 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="3"/>
-      <c r="L70" s="41"/>
+      <c r="L70" s="42"/>
       <c r="M70" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="3"/>
+      <c r="N70" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="38"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
@@ -3219,8 +3262,8 @@
         <v>154</v>
       </c>
       <c r="E71" s="3"/>
-      <c r="L71" s="37" t="s">
-        <v>93</v>
+      <c r="L71" s="39" t="s">
+        <v>92</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>24</v>
@@ -3229,7 +3272,7 @@
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="2" t="s">
         <v>26</v>
       </c>
@@ -3237,17 +3280,15 @@
         <v>19</v>
       </c>
       <c r="E72" s="3"/>
-      <c r="L72" s="38"/>
+      <c r="L72" s="43"/>
       <c r="M72" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N72" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="37" t="s">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="39" t="s">
         <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -3255,15 +3296,15 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="3"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N73" s="4"/>
-      <c r="O73" s="5"/>
-    </row>
-    <row r="74" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="38"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B74" s="43"/>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
@@ -3273,9 +3314,17 @@
       <c r="E74" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="L74" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="3"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="41"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="2" t="s">
         <v>26</v>
       </c>
@@ -3283,19 +3332,19 @@
         <v>20</v>
       </c>
       <c r="E75" s="3"/>
-      <c r="L75" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="M75" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N75" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="O75" s="12"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="37" t="s">
+      <c r="L75" s="43"/>
+      <c r="M75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="39" t="s">
         <v>118</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -3305,19 +3354,15 @@
         <v>0</v>
       </c>
       <c r="E76" s="3"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="38"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76" s="4"/>
+      <c r="O76" s="5"/>
+    </row>
+    <row r="77" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="43"/>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
@@ -3327,17 +3372,9 @@
       <c r="E77" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L77" s="41"/>
-      <c r="M77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="O77" s="3"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="41"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="2" t="s">
         <v>26</v>
       </c>
@@ -3345,17 +3382,19 @@
         <v>0</v>
       </c>
       <c r="E78" s="3"/>
-      <c r="L78" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="3"/>
+      <c r="L78" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="O78" s="12"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="37" t="s">
+      <c r="B79" s="39" t="s">
         <v>44</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -3363,15 +3402,19 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="3"/>
-      <c r="L79" s="38"/>
+      <c r="L79" s="43"/>
       <c r="M79" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="3"/>
-    </row>
-    <row r="80" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="38"/>
+      <c r="N79" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B80" s="43"/>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
@@ -3379,15 +3422,17 @@
         <v>157</v>
       </c>
       <c r="E80" s="3"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N80" s="4"/>
-      <c r="O80" s="5"/>
-    </row>
-    <row r="81" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="41"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="42"/>
       <c r="C81" s="2" t="s">
         <v>26</v>
       </c>
@@ -3395,9 +3440,17 @@
         <v>21</v>
       </c>
       <c r="E81" s="3"/>
+      <c r="L81" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="3"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B82" s="37" t="s">
+      <c r="B82" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -3409,21 +3462,15 @@
       <c r="E82" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L82" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="M82" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N82" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="O82" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B83" s="38"/>
+      <c r="L82" s="43"/>
+      <c r="M82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="43"/>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
@@ -3433,19 +3480,15 @@
       <c r="E83" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L83" s="38"/>
-      <c r="M83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>219</v>
-      </c>
+      <c r="L83" s="40"/>
+      <c r="M83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="4"/>
+      <c r="O83" s="5"/>
     </row>
     <row r="84" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="39"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="4" t="s">
         <v>26</v>
       </c>
@@ -3455,188 +3498,225 @@
       <c r="E84" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L84" s="41"/>
-      <c r="M84" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N84" s="2" t="s">
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L85" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="O85" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L86" s="43"/>
+      <c r="M86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O86" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="O84" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L85" s="37" t="s">
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L87" s="42"/>
+      <c r="M87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L88" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L89" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="M85" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L86" s="38"/>
-      <c r="M86" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L87" s="39"/>
-      <c r="M87" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N87" s="4"/>
-      <c r="O87" s="5"/>
-    </row>
-    <row r="88" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L89" s="40" t="s">
+      <c r="M89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L90" s="43"/>
+      <c r="M90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L91" s="40"/>
+      <c r="M91" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N91" s="4"/>
+      <c r="O91" s="5"/>
+    </row>
+    <row r="92" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L93" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="M89" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N89" s="11"/>
-      <c r="O89" s="12"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L90" s="38"/>
-      <c r="M90" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N90" s="2" t="s">
+      <c r="M93" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N93" s="11"/>
+      <c r="O93" s="12"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L94" s="43"/>
+      <c r="M94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="O90" s="3" t="s">
+      <c r="O94" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L95" s="42"/>
+      <c r="M95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L96" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L97" s="43"/>
+      <c r="M97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N97" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L91" s="41"/>
-      <c r="M91" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L92" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L93" s="38"/>
-      <c r="M93" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="O93" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L94" s="39"/>
-      <c r="M94" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N94" s="4"/>
-      <c r="O94" s="5"/>
-    </row>
-    <row r="95" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L96" s="40" t="s">
+      <c r="O97" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L98" s="40"/>
+      <c r="M98" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N98" s="4"/>
+      <c r="O98" s="5"/>
+    </row>
+    <row r="99" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L100" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="M96" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N96" s="11"/>
-      <c r="O96" s="12"/>
-    </row>
-    <row r="97" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L97" s="38"/>
-      <c r="M97" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L98" s="41"/>
-      <c r="M98" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L99" s="37" t="s">
+      <c r="M100" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="N100" s="55"/>
+      <c r="O100" s="56"/>
+    </row>
+    <row r="101" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L101" s="57"/>
+      <c r="M101" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="N101" s="58"/>
+      <c r="O101" s="59"/>
+    </row>
+    <row r="102" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L102" s="60"/>
+      <c r="M102" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N102" s="58"/>
+      <c r="O102" s="59"/>
+    </row>
+    <row r="103" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L103" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="M99" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L100" s="38"/>
-      <c r="M100" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L101" s="39"/>
-      <c r="M101" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N101" s="4"/>
-      <c r="O101" s="5"/>
+      <c r="M103" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N103" s="58"/>
+      <c r="O103" s="59"/>
+    </row>
+    <row r="104" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L104" s="57"/>
+      <c r="M104" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="N104" s="58"/>
+      <c r="O104" s="59"/>
+    </row>
+    <row r="105" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L105" s="62"/>
+      <c r="M105" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="N105" s="63"/>
+      <c r="O105" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="L60:L62"/>
+    <mergeCell ref="L63:L65"/>
+    <mergeCell ref="L71:L73"/>
+    <mergeCell ref="L74:L76"/>
+    <mergeCell ref="L78:L80"/>
+    <mergeCell ref="L81:L83"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="L93:L95"/>
+    <mergeCell ref="L96:L98"/>
+    <mergeCell ref="L100:L102"/>
+    <mergeCell ref="L85:L87"/>
+    <mergeCell ref="L103:L105"/>
+    <mergeCell ref="L89:L91"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="B82:B84"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="B70:B72"/>
@@ -3653,32 +3733,35 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="G39:G41"/>
     <mergeCell ref="G43:G45"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L89:L91"/>
-    <mergeCell ref="L92:L94"/>
-    <mergeCell ref="L96:L98"/>
-    <mergeCell ref="L82:L84"/>
-    <mergeCell ref="L99:L101"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="L50:L52"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="L60:L62"/>
-    <mergeCell ref="L85:L87"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="L71:L73"/>
-    <mergeCell ref="L75:L77"/>
-    <mergeCell ref="L78:L80"/>
-    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>

--- a/Maps/HOTAS Switch and Button - Quick Reference - FULL.xlsx
+++ b/Maps/HOTAS Switch and Button - Quick Reference - FULL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Den\OneDrive\Personal\Thrustmaster\TARGET\Clicker\Development\ED_TargetScript-502\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DF7FA8-5220-4D40-8A88-FD925BD53B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03056282-A257-4625-87BD-6E7D2C48FE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="675" windowWidth="28305" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="555" windowWidth="28305" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="239">
   <si>
     <t>TG1</t>
   </si>
@@ -736,6 +736,12 @@
   </si>
   <si>
     <t>Enter or SRV Handbrake ON</t>
+  </si>
+  <si>
+    <t>Release PTT</t>
+  </si>
+  <si>
+    <t>MSP+R</t>
   </si>
 </sst>
 </file>
@@ -785,7 +791,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1223,24 +1229,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1350,89 +1343,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1717,10 +1716,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O105"/>
+  <dimension ref="B1:R105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,48 +1739,51 @@
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="28.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="G4" s="51" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="G4" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
-      <c r="L4" s="51" t="s">
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="63"/>
+      <c r="L4" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="53"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="63"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
@@ -1823,7 +1825,7 @@
     </row>
     <row r="6" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="47" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -1841,7 +1843,7 @@
         <v>115</v>
       </c>
       <c r="J7" s="18"/>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="47" t="s">
         <v>73</v>
       </c>
       <c r="M7" s="11" t="s">
@@ -1853,7 +1855,7 @@
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1871,7 +1873,7 @@
         <v>116</v>
       </c>
       <c r="J8" s="19"/>
-      <c r="L8" s="40"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="4" t="s">
         <v>128</v>
       </c>
@@ -1881,7 +1883,7 @@
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1911,7 +1913,7 @@
       <c r="O9" s="36"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="60" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1919,7 +1921,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
-      <c r="L10" s="41" t="s">
+      <c r="L10" s="47" t="s">
         <v>75</v>
       </c>
       <c r="M10" s="11" t="s">
@@ -1931,13 +1933,13 @@
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="50"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="21"/>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="57" t="s">
         <v>50</v>
       </c>
       <c r="H11" s="11" t="s">
@@ -1947,7 +1949,7 @@
         <v>52</v>
       </c>
       <c r="J11" s="12"/>
-      <c r="L11" s="40"/>
+      <c r="L11" s="46"/>
       <c r="M11" s="4" t="s">
         <v>128</v>
       </c>
@@ -1957,13 +1959,13 @@
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="5"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1973,13 +1975,13 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="46"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
-      <c r="L13" s="41" t="s">
+      <c r="L13" s="47" t="s">
         <v>76</v>
       </c>
       <c r="M13" s="11" t="s">
@@ -1991,7 +1993,7 @@
       <c r="O13" s="12"/>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -2002,7 +2004,7 @@
       </c>
       <c r="E14" s="12"/>
       <c r="G14" s="13"/>
-      <c r="L14" s="40"/>
+      <c r="L14" s="46"/>
       <c r="M14" s="4" t="s">
         <v>128</v>
       </c>
@@ -2012,7 +2014,7 @@
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2020,7 +2022,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="57" t="s">
         <v>53</v>
       </c>
       <c r="H15" s="11" t="s">
@@ -2030,7 +2032,7 @@
         <v>161</v>
       </c>
       <c r="J15" s="12"/>
-      <c r="L15" s="43" t="s">
+      <c r="L15" s="45" t="s">
         <v>77</v>
       </c>
       <c r="M15" s="6"/>
@@ -2038,7 +2040,7 @@
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="40"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2046,7 +2048,7 @@
         <v>201</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="G16" s="45"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2054,7 +2056,7 @@
         <v>54</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="L16" s="43"/>
+      <c r="L16" s="45"/>
       <c r="M16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2063,21 +2065,21 @@
       </c>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16"/>
-      <c r="G17" s="46"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="5"/>
-      <c r="L17" s="40"/>
+      <c r="L17" s="46"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="41" t="s">
+    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="47" t="s">
         <v>108</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -2091,8 +2093,8 @@
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="45"/>
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2102,19 +2104,17 @@
       <c r="E19" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="47" t="s">
         <v>55</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>127</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="L19" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="L19" s="47" t="s">
         <v>78</v>
       </c>
       <c r="M19" s="11" t="s">
@@ -2124,9 +2124,11 @@
         <v>208</v>
       </c>
       <c r="O19" s="12"/>
-    </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="40"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+    </row>
+    <row r="20" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="46"/>
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
@@ -2136,43 +2138,47 @@
       <c r="E20" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="L20" s="43"/>
+        <v>163</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" s="45"/>
       <c r="M20" s="2" t="s">
         <v>128</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+    </row>
+    <row r="21" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16"/>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="44" t="s">
         <v>56</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="L21" s="43"/>
+        <v>219</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="L21" s="45"/>
       <c r="M21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+    </row>
+    <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
         <v>109</v>
       </c>
@@ -2181,15 +2187,17 @@
         <v>114</v>
       </c>
       <c r="E22" s="29"/>
-      <c r="G22" s="42"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="L22" s="43"/>
+        <v>164</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L22" s="45"/>
       <c r="M22" s="2" t="s">
         <v>25</v>
       </c>
@@ -2197,27 +2205,31 @@
         <v>177</v>
       </c>
       <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="39" t="s">
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+    </row>
+    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="44" t="s">
         <v>57</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="L23" s="40"/>
+      <c r="L23" s="46"/>
       <c r="M23" s="22" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="22"/>
       <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="41" t="s">
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -2225,15 +2237,15 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
-      <c r="G24" s="42"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="L24" s="41" t="s">
+      <c r="L24" s="47" t="s">
         <v>79</v>
       </c>
       <c r="M24" s="11" t="s">
@@ -2241,9 +2253,11 @@
       </c>
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="43"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="45"/>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
@@ -2251,17 +2265,17 @@
         <v>5</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="44" t="s">
         <v>58</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>127</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>101</v>
+        <v>221</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="L25" s="43"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="2" t="s">
         <v>25</v>
       </c>
@@ -2269,32 +2283,36 @@
         <v>178</v>
       </c>
       <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+    </row>
+    <row r="26" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="46"/>
       <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
-      <c r="G26" s="40"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="4" t="s">
         <v>128</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="J26" s="5"/>
-      <c r="L26" s="40"/>
+      <c r="L26" s="46"/>
       <c r="M26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="s">
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+    </row>
+    <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -2314,7 +2332,7 @@
       <c r="J28" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="L28" s="41" t="s">
+      <c r="L28" s="47" t="s">
         <v>80</v>
       </c>
       <c r="M28" s="11" t="s">
@@ -2325,8 +2343,8 @@
       </c>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="43"/>
+    <row r="29" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="45"/>
       <c r="C29" s="2" t="s">
         <v>25</v>
       </c>
@@ -2344,7 +2362,7 @@
       <c r="J29" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L29" s="40"/>
+      <c r="L29" s="46"/>
       <c r="M29" s="4" t="s">
         <v>128</v>
       </c>
@@ -2353,8 +2371,8 @@
       </c>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="42"/>
+    <row r="30" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="48"/>
       <c r="C30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2373,8 +2391,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="39" t="s">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="44" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2392,7 +2410,7 @@
       <c r="J31" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L31" s="41" t="s">
+      <c r="L31" s="47" t="s">
         <v>81</v>
       </c>
       <c r="M31" s="11" t="s">
@@ -2403,8 +2421,8 @@
       </c>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="43"/>
+    <row r="32" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="45"/>
       <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
@@ -2412,7 +2430,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="44" t="s">
         <v>63</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -2421,10 +2439,10 @@
       <c r="I32" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J32" s="37" t="s">
+      <c r="J32" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="L32" s="40"/>
+      <c r="L32" s="46"/>
       <c r="M32" s="4" t="s">
         <v>128</v>
       </c>
@@ -2434,23 +2452,23 @@
       <c r="O32" s="5"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="42"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="4" t="s">
+      <c r="G33" s="48"/>
+      <c r="H33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J33" s="38"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2458,7 +2476,17 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
-      <c r="L34" s="41" t="s">
+      <c r="G34" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="L34" s="47" t="s">
         <v>82</v>
       </c>
       <c r="M34" s="11" t="s">
@@ -2469,8 +2497,8 @@
       </c>
       <c r="O34" s="12"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="43"/>
+    <row r="35" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="45"/>
       <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
@@ -2480,19 +2508,7 @@
       <c r="E35" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G35" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L35" s="43"/>
+      <c r="L35" s="45"/>
       <c r="M35" s="2" t="s">
         <v>25</v>
       </c>
@@ -2504,23 +2520,25 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="42"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="L36" s="42"/>
+      <c r="G36" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L36" s="48"/>
       <c r="M36" s="2" t="s">
         <v>26</v>
       </c>
@@ -2530,7 +2548,7 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="44" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2542,17 +2560,17 @@
       <c r="E37" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G37" s="42"/>
+      <c r="G37" s="45"/>
       <c r="H37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="L37" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="L37" s="44" t="s">
         <v>181</v>
       </c>
       <c r="M37" s="2" t="s">
@@ -2562,7 +2580,7 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="43"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="2" t="s">
         <v>25</v>
       </c>
@@ -2572,17 +2590,17 @@
       <c r="E38" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G38" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" s="2"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="I38" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L38" s="43"/>
+        <v>228</v>
+      </c>
+      <c r="L38" s="45"/>
       <c r="M38" s="2" t="s">
         <v>25</v>
       </c>
@@ -2594,21 +2612,23 @@
       </c>
     </row>
     <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="40"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
-      <c r="G39" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="7"/>
-      <c r="L39" s="42"/>
+      <c r="G39" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L39" s="48"/>
       <c r="M39" s="2" t="s">
         <v>26</v>
       </c>
@@ -2616,15 +2636,15 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="43"/>
-      <c r="H40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J40" s="3"/>
-      <c r="L40" s="39" t="s">
+      <c r="G40" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="7"/>
+      <c r="L40" s="44" t="s">
         <v>83</v>
       </c>
       <c r="M40" s="2" t="s">
@@ -2633,8 +2653,8 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="41" t="s">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C41" s="11" t="s">
@@ -2644,13 +2664,15 @@
         <v>145</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="5"/>
-      <c r="L41" s="43"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="L41" s="45"/>
       <c r="M41" s="2" t="s">
         <v>25</v>
       </c>
@@ -2658,7 +2680,7 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="43"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
@@ -2666,15 +2688,21 @@
         <v>11</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="L42" s="42"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="5"/>
+      <c r="L42" s="48"/>
       <c r="M42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N42" s="24"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="42"/>
+    <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="48"/>
       <c r="C43" s="2" t="s">
         <v>26</v>
       </c>
@@ -2682,17 +2710,7 @@
         <v>11</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="G43" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J43" s="12"/>
-      <c r="L43" s="39" t="s">
+      <c r="L43" s="44" t="s">
         <v>84</v>
       </c>
       <c r="M43" s="2" t="s">
@@ -2704,7 +2722,7 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="44" t="s">
         <v>34</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2712,12 +2730,17 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J44" s="3"/>
-      <c r="L44" s="43"/>
+      <c r="G44" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J44" s="12"/>
+      <c r="L44" s="45"/>
       <c r="M44" s="2" t="s">
         <v>25</v>
       </c>
@@ -2729,7 +2752,7 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="43"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
@@ -2737,17 +2760,12 @@
         <v>12</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="G45" s="42"/>
+      <c r="G45" s="45"/>
       <c r="H45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L45" s="42"/>
+        <v>25</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="L45" s="48"/>
       <c r="M45" s="2" t="s">
         <v>26</v>
       </c>
@@ -2757,7 +2775,7 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="42"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="2" t="s">
         <v>26</v>
       </c>
@@ -2765,15 +2783,17 @@
         <v>13</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="G46" s="39" t="s">
-        <v>69</v>
-      </c>
+      <c r="G46" s="48"/>
       <c r="H46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="3"/>
-      <c r="L46" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L46" s="45" t="s">
         <v>183</v>
       </c>
       <c r="M46" s="2" t="s">
@@ -2783,7 +2803,7 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2791,13 +2811,15 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="3"/>
-      <c r="G47" s="43"/>
+      <c r="G47" s="44" t="s">
+        <v>69</v>
+      </c>
       <c r="H47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="3"/>
-      <c r="L47" s="43"/>
+      <c r="L47" s="45"/>
       <c r="M47" s="2" t="s">
         <v>25</v>
       </c>
@@ -2809,7 +2831,7 @@
       </c>
     </row>
     <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="43"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
@@ -2817,13 +2839,13 @@
         <v>14</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="G48" s="42"/>
+      <c r="G48" s="45"/>
       <c r="H48" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="3"/>
-      <c r="L48" s="40"/>
+      <c r="L48" s="46"/>
       <c r="M48" s="4" t="s">
         <v>26</v>
       </c>
@@ -2833,7 +2855,7 @@
       <c r="O48" s="5"/>
     </row>
     <row r="49" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="42"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="2" t="s">
         <v>26</v>
       </c>
@@ -2841,19 +2863,15 @@
         <v>15</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="G49" s="39" t="s">
-        <v>70</v>
-      </c>
+      <c r="G49" s="48"/>
       <c r="H49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I49" s="2"/>
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="44" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2861,12 +2879,17 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
-      <c r="G50" s="43"/>
+      <c r="G50" s="44" t="s">
+        <v>70</v>
+      </c>
       <c r="H50" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="J50" s="3"/>
-      <c r="L50" s="41" t="s">
+      <c r="L50" s="47" t="s">
         <v>85</v>
       </c>
       <c r="M50" s="11" t="s">
@@ -2875,8 +2898,8 @@
       <c r="N50" s="11"/>
       <c r="O50" s="12"/>
     </row>
-    <row r="51" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="43"/>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="45"/>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
@@ -2884,13 +2907,12 @@
         <v>16</v>
       </c>
       <c r="E51" s="3"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="5"/>
-      <c r="L51" s="43"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="L51" s="45"/>
       <c r="M51" s="2" t="s">
         <v>25</v>
       </c>
@@ -2900,7 +2922,7 @@
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="40"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="4" t="s">
         <v>26</v>
       </c>
@@ -2908,7 +2930,13 @@
         <v>17</v>
       </c>
       <c r="E52" s="5"/>
-      <c r="L52" s="42"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="5"/>
+      <c r="L52" s="48"/>
       <c r="M52" s="2" t="s">
         <v>26</v>
       </c>
@@ -2916,15 +2944,7 @@
       <c r="O52" s="3"/>
     </row>
     <row r="53" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G53" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="11"/>
-      <c r="J53" s="12"/>
-      <c r="L53" s="39" t="s">
+      <c r="L53" s="44" t="s">
         <v>86</v>
       </c>
       <c r="M53" s="2" t="s">
@@ -2934,7 +2954,7 @@
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="47" t="s">
         <v>37</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -2942,15 +2962,15 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="12"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J54" s="3"/>
-      <c r="L54" s="43"/>
+      <c r="G54" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="12"/>
+      <c r="L54" s="45"/>
       <c r="M54" s="2" t="s">
         <v>25</v>
       </c>
@@ -2960,7 +2980,7 @@
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="43"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
@@ -2968,13 +2988,15 @@
         <v>146</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="G55" s="42"/>
+      <c r="G55" s="45"/>
       <c r="H55" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="J55" s="3"/>
-      <c r="L55" s="40"/>
+      <c r="L55" s="46"/>
       <c r="M55" s="4" t="s">
         <v>26</v>
       </c>
@@ -2982,23 +3004,21 @@
       <c r="O55" s="5"/>
     </row>
     <row r="56" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="42"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
-      <c r="G56" s="39" t="s">
-        <v>72</v>
-      </c>
+      <c r="G56" s="48"/>
       <c r="H56" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="44" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -3006,15 +3026,15 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
-      <c r="G57" s="43"/>
+      <c r="G57" s="44" t="s">
+        <v>72</v>
+      </c>
       <c r="H57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>172</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I57" s="2"/>
       <c r="J57" s="3"/>
-      <c r="L57" s="41" t="s">
+      <c r="L57" s="47" t="s">
         <v>87</v>
       </c>
       <c r="M57" s="11" t="s">
@@ -3023,8 +3043,8 @@
       <c r="N57" s="11"/>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="43"/>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="45"/>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
@@ -3032,13 +3052,15 @@
         <v>147</v>
       </c>
       <c r="E58" s="3"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="5"/>
-      <c r="L58" s="43"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="L58" s="45"/>
       <c r="M58" s="2" t="s">
         <v>25</v>
       </c>
@@ -3049,14 +3071,20 @@
         <v>189</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="42"/>
+    <row r="59" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="48"/>
       <c r="C59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="3"/>
-      <c r="L59" s="42"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="5"/>
+      <c r="L59" s="48"/>
       <c r="M59" s="2" t="s">
         <v>26</v>
       </c>
@@ -3064,7 +3092,7 @@
       <c r="O59" s="3"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="44" t="s">
         <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -3072,7 +3100,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="3"/>
-      <c r="L60" s="39" t="s">
+      <c r="L60" s="44" t="s">
         <v>88</v>
       </c>
       <c r="M60" s="2" t="s">
@@ -3082,7 +3110,7 @@
       <c r="O60" s="3"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="43"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
@@ -3090,7 +3118,7 @@
         <v>148</v>
       </c>
       <c r="E61" s="3"/>
-      <c r="L61" s="43"/>
+      <c r="L61" s="45"/>
       <c r="M61" s="2" t="s">
         <v>25</v>
       </c>
@@ -3098,13 +3126,13 @@
       <c r="O61" s="3"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="42"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="3"/>
-      <c r="L62" s="42"/>
+      <c r="L62" s="48"/>
       <c r="M62" s="2" t="s">
         <v>26</v>
       </c>
@@ -3112,7 +3140,7 @@
       <c r="O62" s="3"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="44" t="s">
         <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -3120,7 +3148,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="3"/>
-      <c r="L63" s="39" t="s">
+      <c r="L63" s="44" t="s">
         <v>89</v>
       </c>
       <c r="M63" s="2" t="s">
@@ -3130,7 +3158,7 @@
       <c r="O63" s="3"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="43"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
@@ -3138,7 +3166,7 @@
         <v>149</v>
       </c>
       <c r="E64" s="3"/>
-      <c r="L64" s="43"/>
+      <c r="L64" s="45"/>
       <c r="M64" s="2" t="s">
         <v>25</v>
       </c>
@@ -3150,13 +3178,13 @@
       </c>
     </row>
     <row r="65" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="40"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="5"/>
-      <c r="L65" s="42"/>
+      <c r="L65" s="48"/>
       <c r="M65" s="2" t="s">
         <v>26</v>
       </c>
@@ -3176,7 +3204,7 @@
       </c>
     </row>
     <row r="67" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="47" t="s">
         <v>41</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -3190,7 +3218,7 @@
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="43"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
@@ -3200,7 +3228,7 @@
       <c r="E68" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L68" s="41" t="s">
+      <c r="L68" s="47" t="s">
         <v>91</v>
       </c>
       <c r="M68" s="11" t="s">
@@ -3214,7 +3242,7 @@
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="42"/>
+      <c r="B69" s="48"/>
       <c r="C69" s="2" t="s">
         <v>26</v>
       </c>
@@ -3222,7 +3250,7 @@
         <v>18</v>
       </c>
       <c r="E69" s="3"/>
-      <c r="L69" s="43"/>
+      <c r="L69" s="45"/>
       <c r="M69" s="2" t="s">
         <v>25</v>
       </c>
@@ -3234,7 +3262,7 @@
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -3242,7 +3270,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="3"/>
-      <c r="L70" s="42"/>
+      <c r="L70" s="48"/>
       <c r="M70" s="2" t="s">
         <v>26</v>
       </c>
@@ -3254,7 +3282,7 @@
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="43"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
@@ -3262,7 +3290,7 @@
         <v>154</v>
       </c>
       <c r="E71" s="3"/>
-      <c r="L71" s="39" t="s">
+      <c r="L71" s="44" t="s">
         <v>92</v>
       </c>
       <c r="M71" s="2" t="s">
@@ -3272,7 +3300,7 @@
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="42"/>
+      <c r="B72" s="48"/>
       <c r="C72" s="2" t="s">
         <v>26</v>
       </c>
@@ -3280,7 +3308,7 @@
         <v>19</v>
       </c>
       <c r="E72" s="3"/>
-      <c r="L72" s="43"/>
+      <c r="L72" s="45"/>
       <c r="M72" s="2" t="s">
         <v>25</v>
       </c>
@@ -3288,7 +3316,7 @@
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="44" t="s">
         <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -3296,7 +3324,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="3"/>
-      <c r="L73" s="42"/>
+      <c r="L73" s="48"/>
       <c r="M73" s="2" t="s">
         <v>26</v>
       </c>
@@ -3304,7 +3332,7 @@
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="43"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
@@ -3314,7 +3342,7 @@
       <c r="E74" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L74" s="39" t="s">
+      <c r="L74" s="44" t="s">
         <v>93</v>
       </c>
       <c r="M74" s="2" t="s">
@@ -3324,7 +3352,7 @@
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="42"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="2" t="s">
         <v>26</v>
       </c>
@@ -3332,7 +3360,7 @@
         <v>20</v>
       </c>
       <c r="E75" s="3"/>
-      <c r="L75" s="43"/>
+      <c r="L75" s="45"/>
       <c r="M75" s="2" t="s">
         <v>25</v>
       </c>
@@ -3344,7 +3372,7 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="44" t="s">
         <v>118</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -3354,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="3"/>
-      <c r="L76" s="40"/>
+      <c r="L76" s="46"/>
       <c r="M76" s="4" t="s">
         <v>26</v>
       </c>
@@ -3362,7 +3390,7 @@
       <c r="O76" s="5"/>
     </row>
     <row r="77" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="43"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
@@ -3374,7 +3402,7 @@
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="42"/>
+      <c r="B78" s="48"/>
       <c r="C78" s="2" t="s">
         <v>26</v>
       </c>
@@ -3382,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="3"/>
-      <c r="L78" s="41" t="s">
+      <c r="L78" s="47" t="s">
         <v>94</v>
       </c>
       <c r="M78" s="11" t="s">
@@ -3394,7 +3422,7 @@
       <c r="O78" s="12"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="39" t="s">
+      <c r="B79" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -3402,7 +3430,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="3"/>
-      <c r="L79" s="43"/>
+      <c r="L79" s="45"/>
       <c r="M79" s="2" t="s">
         <v>25</v>
       </c>
@@ -3414,7 +3442,7 @@
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="43"/>
+      <c r="B80" s="45"/>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
@@ -3422,7 +3450,7 @@
         <v>157</v>
       </c>
       <c r="E80" s="3"/>
-      <c r="L80" s="42"/>
+      <c r="L80" s="48"/>
       <c r="M80" s="2" t="s">
         <v>26</v>
       </c>
@@ -3432,7 +3460,7 @@
       <c r="O80" s="3"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B81" s="42"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="2" t="s">
         <v>26</v>
       </c>
@@ -3440,7 +3468,7 @@
         <v>21</v>
       </c>
       <c r="E81" s="3"/>
-      <c r="L81" s="39" t="s">
+      <c r="L81" s="44" t="s">
         <v>95</v>
       </c>
       <c r="M81" s="2" t="s">
@@ -3450,7 +3478,7 @@
       <c r="O81" s="3"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="44" t="s">
         <v>22</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -3462,7 +3490,7 @@
       <c r="E82" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L82" s="43"/>
+      <c r="L82" s="45"/>
       <c r="M82" s="2" t="s">
         <v>25</v>
       </c>
@@ -3470,7 +3498,7 @@
       <c r="O82" s="3"/>
     </row>
     <row r="83" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="43"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
@@ -3480,7 +3508,7 @@
       <c r="E83" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L83" s="40"/>
+      <c r="L83" s="46"/>
       <c r="M83" s="4" t="s">
         <v>26</v>
       </c>
@@ -3488,7 +3516,7 @@
       <c r="O83" s="5"/>
     </row>
     <row r="84" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="40"/>
+      <c r="B84" s="46"/>
       <c r="C84" s="4" t="s">
         <v>26</v>
       </c>
@@ -3500,7 +3528,7 @@
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L85" s="41" t="s">
+      <c r="L85" s="47" t="s">
         <v>96</v>
       </c>
       <c r="M85" s="11" t="s">
@@ -3514,7 +3542,7 @@
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L86" s="43"/>
+      <c r="L86" s="45"/>
       <c r="M86" s="2" t="s">
         <v>25</v>
       </c>
@@ -3526,7 +3554,7 @@
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L87" s="42"/>
+      <c r="L87" s="48"/>
       <c r="M87" s="2" t="s">
         <v>26</v>
       </c>
@@ -3550,7 +3578,7 @@
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L89" s="39" t="s">
+      <c r="L89" s="44" t="s">
         <v>107</v>
       </c>
       <c r="M89" s="2" t="s">
@@ -3560,7 +3588,7 @@
       <c r="O89" s="3"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L90" s="43"/>
+      <c r="L90" s="45"/>
       <c r="M90" s="2" t="s">
         <v>25</v>
       </c>
@@ -3568,7 +3596,7 @@
       <c r="O90" s="3"/>
     </row>
     <row r="91" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L91" s="40"/>
+      <c r="L91" s="46"/>
       <c r="M91" s="4" t="s">
         <v>26</v>
       </c>
@@ -3577,7 +3605,7 @@
     </row>
     <row r="92" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L93" s="41" t="s">
+      <c r="L93" s="47" t="s">
         <v>99</v>
       </c>
       <c r="M93" s="11" t="s">
@@ -3587,7 +3615,7 @@
       <c r="O93" s="12"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L94" s="43"/>
+      <c r="L94" s="45"/>
       <c r="M94" s="2" t="s">
         <v>25</v>
       </c>
@@ -3599,7 +3627,7 @@
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L95" s="42"/>
+      <c r="L95" s="48"/>
       <c r="M95" s="2" t="s">
         <v>26</v>
       </c>
@@ -3607,7 +3635,7 @@
       <c r="O95" s="3"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L96" s="39" t="s">
+      <c r="L96" s="44" t="s">
         <v>199</v>
       </c>
       <c r="M96" s="2" t="s">
@@ -3617,7 +3645,7 @@
       <c r="O96" s="3"/>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L97" s="43"/>
+      <c r="L97" s="45"/>
       <c r="M97" s="2" t="s">
         <v>25</v>
       </c>
@@ -3629,7 +3657,7 @@
       </c>
     </row>
     <row r="98" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L98" s="40"/>
+      <c r="L98" s="46"/>
       <c r="M98" s="4" t="s">
         <v>26</v>
       </c>
@@ -3638,85 +3666,87 @@
     </row>
     <row r="99" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L100" s="54" t="s">
+      <c r="L100" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="M100" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="N100" s="55"/>
-      <c r="O100" s="56"/>
+      <c r="M100" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="N100" s="38"/>
+      <c r="O100" s="39"/>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L101" s="57"/>
-      <c r="M101" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="N101" s="58"/>
-      <c r="O101" s="59"/>
+      <c r="L101" s="50"/>
+      <c r="M101" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N101" s="40"/>
+      <c r="O101" s="41"/>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L102" s="60"/>
-      <c r="M102" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="N102" s="58"/>
-      <c r="O102" s="59"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="N102" s="40"/>
+      <c r="O102" s="41"/>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L103" s="61" t="s">
+      <c r="L103" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="M103" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="N103" s="58"/>
-      <c r="O103" s="59"/>
+      <c r="M103" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N103" s="40"/>
+      <c r="O103" s="41"/>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L104" s="57"/>
-      <c r="M104" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="N104" s="58"/>
-      <c r="O104" s="59"/>
+      <c r="L104" s="50"/>
+      <c r="M104" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N104" s="40"/>
+      <c r="O104" s="41"/>
     </row>
     <row r="105" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L105" s="62"/>
-      <c r="M105" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="N105" s="63"/>
-      <c r="O105" s="64"/>
+      <c r="L105" s="53"/>
+      <c r="M105" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N105" s="42"/>
+      <c r="O105" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="L60:L62"/>
-    <mergeCell ref="L63:L65"/>
-    <mergeCell ref="L71:L73"/>
-    <mergeCell ref="L74:L76"/>
-    <mergeCell ref="L78:L80"/>
-    <mergeCell ref="L81:L83"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="L93:L95"/>
-    <mergeCell ref="L96:L98"/>
-    <mergeCell ref="L100:L102"/>
-    <mergeCell ref="L85:L87"/>
-    <mergeCell ref="L103:L105"/>
-    <mergeCell ref="L89:L91"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B41:B43"/>
     <mergeCell ref="B82:B84"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="B70:B72"/>
@@ -3731,37 +3761,35 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="L96:L98"/>
+    <mergeCell ref="L100:L102"/>
+    <mergeCell ref="L85:L87"/>
+    <mergeCell ref="L103:L105"/>
+    <mergeCell ref="L89:L91"/>
+    <mergeCell ref="L74:L76"/>
+    <mergeCell ref="L78:L80"/>
+    <mergeCell ref="L81:L83"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="L93:L95"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="L60:L62"/>
+    <mergeCell ref="L63:L65"/>
+    <mergeCell ref="L71:L73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
